--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -1,25 +1,90 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BE82F-EA2A-4FC8-AEE3-25B9BEF84F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="問題集結果" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>問題集</t>
+  </si>
+  <si>
+    <t>大問</t>
+  </si>
+  <si>
+    <t>得点</t>
+  </si>
+  <si>
+    <t>配点</t>
+  </si>
+  <si>
+    <t>不正解の問題</t>
+  </si>
+  <si>
+    <t>重点対策</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+</sst>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,85 +92,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,4 +414,83 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BE82F-EA2A-4FC8-AEE3-25B9BEF84F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3FC25-A8E2-40C1-9E18-3149B72F9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,14 +421,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -469,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3FC25-A8E2-40C1-9E18-3149B72F9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F843C81-AD27-44FF-8FAC-F793A7A30D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>問題集</t>
   </si>
@@ -37,16 +37,25 @@
     <t>不正解の問題</t>
   </si>
   <si>
+    <t>ファイルパス</t>
+  </si>
+  <si>
     <t>重点対策</t>
   </si>
   <si>
     <t>2-1</t>
   </si>
   <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
     <t>3-1</t>
+  </si>
+  <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\3-FW\archive_solves.xlsm</t>
   </si>
 </sst>
 </file>
@@ -418,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,13 +451,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -456,13 +468,16 @@
       <c r="D2">
         <v>50</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>75</v>
@@ -470,19 +485,25 @@
       <c r="D3">
         <v>100</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
         <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F843C81-AD27-44FF-8FAC-F793A7A30D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F258D36D-3476-48F0-B9AF-12F8A76A028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>問題集</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\3-FW\archive_solves.xlsm</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+  </si>
+  <si>
+    <t>5-2</t>
   </si>
 </sst>
 </file>
@@ -427,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -506,6 +524,74 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F258D36D-3476-48F0-B9AF-12F8A76A028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE550F7B-8190-464D-938E-E59DDE36F8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>問題集</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>5-2</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-1</t>
   </si>
 </sst>
 </file>
@@ -445,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -592,6 +613,91 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="問題集結果" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="問題集結果" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -509,55 +509,55 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10-1</t>
+          <t>9-1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -569,11 +569,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10-1-rev</t>
+          <t>10-1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
@@ -581,7 +581,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -593,11 +593,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10-2-rev</t>
+          <t>10-2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -605,7 +605,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -617,19 +617,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>10-1-rev</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -641,11 +641,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>10-2-rev</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
         <v>100</v>
@@ -653,7 +653,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
         <v>50</v>
@@ -677,7 +677,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -689,11 +689,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2-2-rev1</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -701,7 +701,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -725,7 +725,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\3-FW\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -737,19 +737,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-2-rev1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -761,11 +761,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>50</v>
@@ -773,7 +773,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\3-FW\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -785,11 +785,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5-1</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
         <v>50</v>
@@ -797,7 +797,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -809,11 +809,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
         <v>50</v>
@@ -821,55 +821,55 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>極選分析</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6-2</t>
+          <t>7-1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>8-2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -881,19 +881,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6-2</t>
+          <t>5-1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -905,43 +905,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選分析</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>6-2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -953,11 +953,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7-1</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
         <v>50</v>
@@ -965,38 +965,38 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>極選</t>
+          <t>重点対策</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>6-2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>50</v>
@@ -1013,7 +1013,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1025,11 +1025,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8-2</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="n">
         <v>100</v>
@@ -1037,7 +1037,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1049,19 +1049,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\9-log\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9-1</t>
+          <t>7-1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>50</v>
@@ -1085,7 +1085,127 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\9-log\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>極選</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5-2</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8-1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>48</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>8-2</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>87</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9-2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>90</v>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\9-log\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9-1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>44</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\9-log\archive_solves.xlsm</t>
         </is>
       </c>
     </row>

--- a/2025/overviews.xlsx
+++ b/2025/overviews.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="問題集結果" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="問題集結果" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\1-access\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\1-access\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\10-incident\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\10-incident\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\2-PKI\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\3-FW\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\3-FW\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\4-server-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -941,14 +941,14 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -965,7 +965,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\5-mail-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -977,67 +977,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6-2</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>極選</t>
+          <t>重点対策</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8-1</t>
+          <t>6-2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>8-1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\6-client-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1049,19 +1049,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7-1</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
         <v>50</v>
@@ -1085,23 +1085,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>極選</t>
+          <t>重点対策</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>50</v>
@@ -1109,23 +1109,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8-1</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>50</v>
@@ -1133,7 +1133,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\7-secure-programming\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1145,19 +1145,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8-2</t>
+          <t>8-1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
@@ -1169,11 +1169,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>8-2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" t="n">
         <v>100</v>
@@ -1181,31 +1181,79 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\9-log\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>重点対策</t>
+          <t>極選</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9-1</t>
+          <t>10-2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>c:\Users\yoshinaga\Documents\Python Scripts\security_specialist/2025\9-log\archive_solves.xlsm</t>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\8-physical-security\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9-2</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\9-log\archive_solves.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>重点対策</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9-1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>44</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>c:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist/2025\9-log\archive_solves.xlsm</t>
         </is>
       </c>
     </row>
